--- a/table/map.xlsx
+++ b/table/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23820" windowHeight="13140"/>
+    <workbookView windowWidth="24060" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="sh" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>layer:number
 primaryKey:true</t>
@@ -116,7 +116,7 @@
 56,6,89,6</t>
   </si>
   <si>
-    <t>2,1,22,4,28,4,29,1,30,4,33,1,35,6,39,4,40,1,41,4,55,1,66,7,68,2,99,4,100,5,101,1,103,3,107,1,109,2,110,4,112,1,118,1,119,1,120,1</t>
+    <t>2,1,22,4,28,4,29,1,30,4,33,1,35,6,39,4,40,1,41,4,55,1,66,7,68,2,99,4,100,5,101,1,103,3,107,1,109,2,110,4,111,14,112,1,118,1,119,1,120,1</t>
   </si>
   <si>
     <t>0,115</t>
@@ -138,7 +138,10 @@
     <t>11,99</t>
   </si>
   <si>
-    <t>42,1,51,1,57,1,60,1,63,1,79,1,82,2</t>
+    <t>117,10,119,11</t>
+  </si>
+  <si>
+    <t>42,1,51,1,57,1,60,1,63,1,67,4,79,1,82,2,84,5,86,5</t>
   </si>
   <si>
     <t>3,27,31,26,74</t>
@@ -166,13 +169,16 @@
     <t>111,109</t>
   </si>
   <si>
+    <t>4,2,5,3,6,4</t>
+  </si>
+  <si>
     <t>27,1,34,1,84,1</t>
   </si>
   <si>
     <t>1,2,11,2,20,9,23,5,38,5,43,2,54,9,55,1,58,9,59,2,60,9,65,2,66,1,92,9,94,2,96,2,106,9</t>
   </si>
   <si>
-    <t>2,1,12,1,22,1,41,1,52,1,63,1,105,7,107,1,116,6,117,5,118,1</t>
+    <t>0,8,2,1,12,1,22,1,41,1,52,1,63,1,105,7,107,1,116,6,117,5,118,1</t>
   </si>
   <si>
     <t>120,110</t>
@@ -194,7 +200,10 @@
     <t>109,99</t>
   </si>
   <si>
-    <t>11,1,13,1,19,1,21,1,60,3,93,2</t>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>11,1,13,1,19,1,21,1,27,5,60,3,93,2</t>
   </si>
   <si>
     <t>1,3,9,3,35,5,37,10,38,11,39,10,41,5,44,9,49,10,54,9,55,9,65,9,66,2,70,32,71,17,72,32,76,2,82,32,113,3,117,3</t>
@@ -222,13 +231,16 @@
     <t>99,108</t>
   </si>
   <si>
+    <t>78,8,43,13</t>
+  </si>
+  <si>
     <t>30,1,34,1,93,1,95,2,97,1,107,1</t>
   </si>
   <si>
     <t>5,14,8,14,15,14,20,14,22,10,26,6,35,14,38,6,41,32,42,6,44,10,54,6,60,9,61,5,69,3,80,3,85,32,86,17,91,9,104,9,112,9</t>
   </si>
   <si>
-    <t>2,4,4,5,9,1,10,2,13,6,21,1,55,6,66,7,106,7,117,1</t>
+    <t>0,9,2,4,4,5,9,1,10,2,13,6,21,1,37,10,55,6,66,7,106,7,117,1</t>
   </si>
   <si>
     <t>119,110</t>
@@ -256,7 +268,7 @@
     <t>1,7,6,4,11,7,18,4,20,34,23,11,27,11,32,34,36,17,42,21,57,19,63,19,79,10,81,10,101,10</t>
   </si>
   <si>
-    <t>3,7,5,1,9,5,10,5,12,1,14,6,17,1,21,5,22,1,29,1,59,1,60,1,61,1</t>
+    <t>0,12,3,7,5,1,7,13,9,5,10,5,12,1,14,6,17,1,21,5,22,1,29,1,59,1,60,1,61,1</t>
   </si>
   <si>
     <t>114,119</t>
@@ -278,13 +290,13 @@
     <t>115,1</t>
   </si>
   <si>
-    <t>16,2,46,2,52,2,82,2,104,3,113,1,117,1</t>
+    <t>16,2,38,6,46,2,48,6,50,6,52,2,60,6,82,2,104,3,113,1,117,1</t>
   </si>
   <si>
     <t>14,11,18,7,24,11,27,30,30,7,47,30,51,30,71,30</t>
   </si>
   <si>
-    <t>25,7,29,6,68,4,69,6,73,7,74,4,79,1,80,4,84,4,85,1,91,2,92,2,93,5,94,2,95,2</t>
+    <t>25,7,29,6,49,16,68,4,69,6,73,7,74,4,79,1,80,4,84,4,85,1,91,2,92,2,93,5,94,2,95,2</t>
   </si>
   <si>
     <t>0,114</t>
@@ -340,7 +352,7 @@
     <t>13,33,21,7,67,21,70,20,88,7,90,7,100,7,103,34,104,20,105,34,109,7,112,7,115,34</t>
   </si>
   <si>
-    <t>1,1,11,1,32,1,43,1,54,4,66,7,68,6,76,4,87,1,89,4,98,1,99,2,101,4,111,2,114,5,116,5</t>
+    <t>0,15,1,1,11,1,32,1,43,1,54,4,66,7,68,6,76,4,87,1,89,4,98,1,99,2,101,4,110,11,111,2,114,5,116,5</t>
   </si>
   <si>
     <t>72,50</t>
@@ -362,7 +374,7 @@
     <t>70,99</t>
   </si>
   <si>
-    <t>15,1,17,1,62,1,74,1,84,1,104,3</t>
+    <t>15,1,17,1,62,1,69,5,74,1,84,1,104,3</t>
   </si>
   <si>
     <t>4,33,6,33,21,21,31,21,44,10,55,11,66,10,75,11,95,11,105,20,107,20</t>
@@ -390,13 +402,16 @@
     <t>111,119</t>
   </si>
   <si>
+    <t>92,5,93,6,94,7</t>
+  </si>
+  <si>
     <t>33,1,35,1,37,1,39,1,42,2,55,1,58,2,62,2,65,1,101,3,107,3</t>
   </si>
   <si>
     <t>19,16,20,15,21,16,31,16,69,16,71,18,73,16,79,33,85,33,90,33,96,33</t>
   </si>
   <si>
-    <t>0,4,2,1,4,2,6,3,8,5,10,5,11,4,13,1,15,2,17,3,22,4,24,1,26,2,28,3,66,7,70,5,72,5,76,6,77,7,87,6,88,7,98,6,103,4,105,4</t>
+    <t>0,4,2,1,4,2,6,3,8,5,9,17,10,5,11,4,13,1,15,2,17,3,22,4,24,1,26,2,28,3,66,7,70,5,72,5,76,6,77,7,87,6,88,7,98,6,103,4,105,4</t>
   </si>
   <si>
     <t>1,1,2,1,1,1,1,1,2,1,1,
@@ -415,13 +430,16 @@
     <t>119,111</t>
   </si>
   <si>
+    <t>0,14</t>
+  </si>
+  <si>
     <t>16,1,56,2,64,2,90,1,96,1,104,2</t>
   </si>
   <si>
     <t>4,26,5,27,6,26,27,27,34,18,42,13,44,18,45,28,53,25,54,13,89,18,91,16,92,16,93,15,94,16,95,16,97,18</t>
   </si>
   <si>
-    <t>1,7,9,5,11,6,21,5,38,1,49,1,60,4,71,4,88,7,98,6</t>
+    <t>1,7,9,5,10,19,11,6,21,5,38,1,49,1,60,4,71,4,88,7,98,6</t>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,2,1,1,1,
@@ -440,13 +458,16 @@
     <t>111,114</t>
   </si>
   <si>
-    <t>17,1,35,3,113,2,119,1</t>
+    <t>70,9</t>
+  </si>
+  <si>
+    <t>17,1,35,3,59,5,69,5,113,2,119,1</t>
   </si>
   <si>
     <t>1,18,9,28,26,16,44,26,48,28,50,16,55,27,58,8,61,15,66,26,68,28,72,16,89,26,95,28,118,8</t>
   </si>
   <si>
-    <t>33,5,52,6,63,6,74,6,76,7,87,7,98,7,103,5</t>
+    <t>33,5,52,6,63,6,74,6,76,7,87,7,98,7,103,5,117,18</t>
   </si>
   <si>
     <t>115,110</t>
@@ -468,13 +489,13 @@
     <t>104,5</t>
   </si>
   <si>
-    <t>93,2,103,2,105,2</t>
+    <t>49,5,93,2,103,2,105,2</t>
   </si>
   <si>
     <t>2,13,60,28,71,8,82,28,100,16,101,15,102,16,106,16,107,15,108,16</t>
   </si>
   <si>
-    <t>13,5,19,5,57,4,63,4</t>
+    <t>3,9,13,5,19,5,38,22,57,4,63,4</t>
   </si>
   <si>
     <t>4,115</t>
@@ -496,6 +517,9 @@
     <t>3,7</t>
   </si>
   <si>
+    <t>37,15,39,16</t>
+  </si>
+  <si>
     <t>81,1,83,1,104,3</t>
   </si>
   <si>
@@ -565,7 +589,10 @@
 1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
-    <t>71,3,82,3</t>
+    <t>49,17</t>
+  </si>
+  <si>
+    <t>60,5,71,3,82,3</t>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,
@@ -584,7 +611,13 @@
     <t>119,49</t>
   </si>
   <si>
+    <t>68,5,74,5</t>
+  </si>
+  <si>
     <t>57,22,63,22,71,12</t>
+  </si>
+  <si>
+    <t>79,20,85,21</t>
   </si>
   <si>
     <t>38,120</t>
@@ -625,7 +658,13 @@
 4,4,4,4,4,4,4,4,4,4,4</t>
   </si>
   <si>
+    <t>81,6,83,6</t>
+  </si>
+  <si>
     <t>16,12,27,25,38,25</t>
+  </si>
+  <si>
+    <t>-1,82</t>
   </si>
 </sst>
 </file>
@@ -634,9 +673,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -653,13 +692,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -668,45 +700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,9 +731,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,16 +790,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,6 +827,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -806,31 +845,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,151 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,31 +1058,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,9 +1080,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,11 +1115,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,133 +1156,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1625,7 +1664,7 @@
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1749,18 +1788,20 @@
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:8">
@@ -1768,23 +1809,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="148.5" spans="1:8">
@@ -1792,23 +1835,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="148.5" spans="1:8">
@@ -1816,23 +1861,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="148.5" spans="1:8">
@@ -1840,23 +1887,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="148.5" spans="1:8">
@@ -1864,23 +1911,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="148.5" spans="1:8">
@@ -1888,23 +1935,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="148.5" spans="1:8">
@@ -1912,23 +1959,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" ht="148.5" spans="1:8">
@@ -1936,23 +1983,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="148.5" spans="1:8">
@@ -1960,23 +2007,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="148.5" spans="1:8">
@@ -1984,23 +2033,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="148.5" spans="1:8">
@@ -2008,23 +2059,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" ht="148.5" spans="1:8">
@@ -2032,23 +2085,23 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" ht="148.5" spans="1:8">
@@ -2056,21 +2109,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" ht="148.5" spans="1:8">
@@ -2078,21 +2133,21 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" ht="148.5" spans="1:8">
@@ -2100,18 +2155,18 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="1:8">
@@ -2119,19 +2174,21 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:8">
@@ -2139,19 +2196,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="H22" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" ht="148.5" spans="1:8">
@@ -2159,7 +2220,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C23" s="5">
         <v>49</v>
@@ -2167,13 +2228,13 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" ht="148.5" spans="1:8">
@@ -2181,18 +2242,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C24" s="5">
         <v>60</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2"/>

--- a/table/map.xlsx
+++ b/table/map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24060" windowHeight="12255"/>
+    <workbookView windowWidth="17745" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="sh" sheetId="4" r:id="rId1"/>
@@ -661,7 +661,7 @@
     <t>81,6,83,6</t>
   </si>
   <si>
-    <t>16,12,27,25,38,25</t>
+    <t>16,36,27,25,38,25</t>
   </si>
   <si>
     <t>-1,82</t>
@@ -673,8 +673,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -692,40 +692,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,17 +706,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,7 +723,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,6 +732,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,16 +775,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,9 +790,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,12 +821,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -845,25 +845,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,43 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,109 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,26 +1039,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,11 +1089,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,23 +1131,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,145 +1144,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1664,7 +1664,7 @@
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H24" sqref="H24"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/table/map.xlsx
+++ b/table/map.xlsx
@@ -614,7 +614,7 @@
     <t>68,5,74,5</t>
   </si>
   <si>
-    <t>57,22,63,22,71,12</t>
+    <t>57,23,63,23,71,12</t>
   </si>
   <si>
     <t>79,20,85,21</t>
@@ -692,17 +692,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,7 +710,74 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,6 +785,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,60 +806,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -813,24 +828,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,55 +845,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,127 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1043,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,28 +1063,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,26 +1111,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,133 +1156,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1661,10 +1661,10 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
